--- a/middle-to-gun/Excel/WeaponProp_武器表.xlsx
+++ b/middle-to-gun/Excel/WeaponProp_武器表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -44,6 +44,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,7 +78,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -83,11 +111,17 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,6 +472,8 @@
     <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" max="22" min="22" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" max="23" min="23" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="24" min="24" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="25" min="25" style="0" width="15"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
@@ -493,21 +529,27 @@
         <v>vector3</v>
       </c>
       <c r="R1" s="1" t="str">
+        <v>string</v>
+      </c>
+      <c r="S1" s="1" t="str">
+        <v>string</v>
+      </c>
+      <c r="T1" s="1" t="str">
         <v>string[]</v>
       </c>
-      <c r="S1" s="1" t="str">
+      <c r="U1" s="1" t="str">
         <v>string[]</v>
-      </c>
-      <c r="T1" s="1" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="U1" s="1" t="str">
-        <v>int[]</v>
       </c>
       <c r="V1" s="1" t="str">
         <v>int[]</v>
       </c>
       <c r="W1" s="1" t="str">
+        <v>int[]</v>
+      </c>
+      <c r="X1" s="1" t="str">
+        <v>int[]</v>
+      </c>
+      <c r="Y1" s="1" t="str">
         <v>int[]</v>
       </c>
     </row>
@@ -564,21 +606,27 @@
         <v>GunScale</v>
       </c>
       <c r="R2" s="1" t="str">
+        <v>ReloadAnimation</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <v>ReloadSound</v>
+      </c>
+      <c r="T2" s="1" t="str">
         <v>SkillAnims</v>
       </c>
-      <c r="S2" s="1" t="str">
+      <c r="U2" s="1" t="str">
         <v>SkillAnimTimes</v>
       </c>
-      <c r="T2" s="1" t="str">
+      <c r="V2" s="1" t="str">
         <v>SkillAtkTime</v>
       </c>
-      <c r="U2" s="1" t="str">
+      <c r="W2" s="1" t="str">
         <v>SkillCDs</v>
       </c>
-      <c r="V2" s="1" t="str">
+      <c r="X2" s="1" t="str">
         <v>SkillBulletCounts</v>
       </c>
-      <c r="W2" s="1" t="str">
+      <c r="Y2" s="1" t="str">
         <v>SkillFireInterval</v>
       </c>
     </row>
@@ -647,26 +695,32 @@
       <c r="Q3" t="str">
         <v>枪缩放</v>
       </c>
-      <c r="R3" s="1" t="str">
+      <c r="R3" s="3" t="str">
+        <v>换弹动画</v>
+      </c>
+      <c r="S3" s="3" t="str">
+        <v>换弹音效</v>
+      </c>
+      <c r="T3" s="1" t="str">
         <v>技能动画
 手枪技能动画-20244
 步枪技能动画-99959
 加特林技能动画-218510
 弓箭技能动画-121981</v>
       </c>
-      <c r="S3" t="str">
+      <c r="U3" t="str">
         <v>技能动画时长</v>
       </c>
-      <c r="T3" t="str">
+      <c r="V3" t="str">
         <v>技能开火时间点</v>
       </c>
-      <c r="U3" t="str">
+      <c r="W3" t="str">
         <v>技能CD</v>
       </c>
-      <c r="V3" t="str">
+      <c r="X3" t="str">
         <v>技能子弹数量</v>
       </c>
-      <c r="W3" t="str">
+      <c r="Y3" t="str">
         <v>技能子弹发射间隔</v>
       </c>
     </row>
@@ -715,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P5" s="1" t="str">
         <v>0|0|0</v>
@@ -723,22 +777,28 @@
       <c r="Q5" s="1" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="R5" s="1" t="str">
+      <c r="R5" s="1">
+        <v>80588</v>
+      </c>
+      <c r="S5" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T5" s="1" t="str">
         <v>20244|20244|20244</v>
       </c>
-      <c r="S5" s="1" t="str">
+      <c r="U5" s="1" t="str">
         <v>0.2|0.4|0.6</v>
       </c>
-      <c r="T5" s="1" t="str">
+      <c r="V5" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="W5" s="1" t="str">
         <v>1|5|10</v>
       </c>
-      <c r="V5" s="1" t="str">
+      <c r="X5" s="1" t="str">
         <v>1|2|3</v>
       </c>
-      <c r="W5" s="1" t="str">
+      <c r="Y5" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -786,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="O6" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P6" s="1" t="str">
         <v>0|0|0</v>
@@ -794,22 +854,28 @@
       <c r="Q6" s="1" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="R6" s="1" t="str">
+      <c r="R6" s="2">
+        <v>80588</v>
+      </c>
+      <c r="S6" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T6" s="1" t="str">
         <v>20244|20244|20244</v>
       </c>
-      <c r="S6" s="1" t="str">
+      <c r="U6" s="1" t="str">
         <v>0.2|0.4|0.6</v>
       </c>
-      <c r="T6" s="1" t="str">
+      <c r="V6" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U6" s="1" t="str">
+      <c r="W6" s="1" t="str">
         <v>1|5|10</v>
       </c>
-      <c r="V6" s="1" t="str">
+      <c r="X6" s="1" t="str">
         <v>1|2|3</v>
       </c>
-      <c r="W6" s="1" t="str">
+      <c r="Y6" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -857,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P7" s="1" t="str">
         <v>0|0|0</v>
@@ -865,22 +931,28 @@
       <c r="Q7" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R7" s="1" t="str">
+      <c r="R7" s="2">
+        <v>80588</v>
+      </c>
+      <c r="S7" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T7" s="1" t="str">
         <v>20244|20244|20244</v>
       </c>
-      <c r="S7" s="1" t="str">
+      <c r="U7" s="1" t="str">
         <v>0.2|0.4|0.6</v>
       </c>
-      <c r="T7" s="1" t="str">
+      <c r="V7" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U7" s="1" t="str">
+      <c r="W7" s="1" t="str">
         <v>1|5|10</v>
       </c>
-      <c r="V7" s="1" t="str">
+      <c r="X7" s="1" t="str">
         <v>1|2|3</v>
       </c>
-      <c r="W7" s="1" t="str">
+      <c r="Y7" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -898,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="str">
-        <v>1|8888</v>
+        <v>1|18888</v>
       </c>
       <c r="F8" t="str">
         <v>4FEDD6C54B0257242B22ECA4BE5099DA</v>
@@ -916,7 +988,7 @@
         <v>0.5</v>
       </c>
       <c r="K8" s="1">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -928,7 +1000,7 @@
         <v>30</v>
       </c>
       <c r="O8" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P8" s="1" t="str">
         <v>0|0|0</v>
@@ -936,22 +1008,28 @@
       <c r="Q8" s="1" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="R8" s="1" t="str">
+      <c r="R8" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S8" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T8" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S8" s="1" t="str">
+      <c r="U8" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T8" s="1" t="str">
+      <c r="V8" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U8" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V8" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W8" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y8" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -969,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="str">
-        <v>1|8888</v>
+        <v>1|18888</v>
       </c>
       <c r="F9" t="str">
         <v>5AC24144451A25F4D04B3D8400D74B75</v>
@@ -987,7 +1065,7 @@
         <v>0.5</v>
       </c>
       <c r="K9" s="1">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -999,7 +1077,7 @@
         <v>30</v>
       </c>
       <c r="O9" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1" t="str">
         <v>0|0|0</v>
@@ -1007,22 +1085,28 @@
       <c r="Q9" s="1" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="R9" s="1" t="str">
+      <c r="R9" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S9" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T9" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S9" s="1" t="str">
+      <c r="U9" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T9" s="1" t="str">
+      <c r="V9" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U9" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V9" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W9" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y9" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1040,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="str">
-        <v>1|8888</v>
+        <v>1|18888</v>
       </c>
       <c r="F10" t="str">
         <v>21361072458C51775137F086B3D59EA5</v>
@@ -1058,7 +1142,7 @@
         <v>0.5</v>
       </c>
       <c r="K10" s="1">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -1070,7 +1154,7 @@
         <v>30</v>
       </c>
       <c r="O10" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P10" s="1" t="str">
         <v>0|0|0</v>
@@ -1078,22 +1162,28 @@
       <c r="Q10" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R10" s="1" t="str">
+      <c r="R10" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S10" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T10" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S10" s="1" t="str">
+      <c r="U10" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T10" s="1" t="str">
+      <c r="V10" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U10" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V10" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W10" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y10" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1111,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="str">
-        <v>1|8888</v>
+        <v>2|28888</v>
       </c>
       <c r="F11" t="str">
         <v>82B2ADED4C512F42721715BFF158D103</v>
@@ -1129,7 +1219,7 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -1141,7 +1231,7 @@
         <v>30</v>
       </c>
       <c r="O11" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P11" s="1" t="str">
         <v>0|0|0</v>
@@ -1149,22 +1239,28 @@
       <c r="Q11" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R11" s="1" t="str">
+      <c r="R11" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S11" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T11" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S11" s="1" t="str">
+      <c r="U11" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T11" s="1" t="str">
+      <c r="V11" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U11" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V11" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W11" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y11" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1182,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="str">
-        <v>1|8888</v>
+        <v>2|28888</v>
       </c>
       <c r="F12" t="str">
         <v>493A3E1D4A6DFD265D8C1BA51A2010C6</v>
@@ -1200,7 +1296,7 @@
         <v>0.5</v>
       </c>
       <c r="K12" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1212,7 +1308,7 @@
         <v>30</v>
       </c>
       <c r="O12" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P12" s="1" t="str">
         <v>0|0|0</v>
@@ -1220,22 +1316,28 @@
       <c r="Q12" s="1" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="R12" s="1" t="str">
+      <c r="R12" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S12" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T12" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S12" s="1" t="str">
+      <c r="U12" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T12" s="1" t="str">
+      <c r="V12" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U12" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V12" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W12" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y12" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1253,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="str">
-        <v>1|8888</v>
+        <v>2|28888</v>
       </c>
       <c r="F13" t="str">
         <v>FADED6DA480333DCE397E08486F6E12B</v>
@@ -1271,7 +1373,7 @@
         <v>0.5</v>
       </c>
       <c r="K13" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1283,7 +1385,7 @@
         <v>30</v>
       </c>
       <c r="O13" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P13" s="1" t="str">
         <v>0|0|0</v>
@@ -1291,22 +1393,28 @@
       <c r="Q13" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R13" s="1" t="str">
+      <c r="R13" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S13" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T13" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S13" s="1" t="str">
+      <c r="U13" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T13" s="1" t="str">
+      <c r="V13" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U13" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V13" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W13" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y13" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1324,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="str">
-        <v>1|8888</v>
+        <v>2|28888</v>
       </c>
       <c r="F14" t="str">
         <v>251FCDE54066648DD9228DA8593CABFE</v>
@@ -1342,7 +1450,7 @@
         <v>0.5</v>
       </c>
       <c r="K14" s="1">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1354,7 +1462,7 @@
         <v>30</v>
       </c>
       <c r="O14" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P14" s="1" t="str">
         <v>0|0|0</v>
@@ -1362,22 +1470,28 @@
       <c r="Q14" s="1" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="R14" s="1" t="str">
+      <c r="R14" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S14" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T14" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S14" s="1" t="str">
+      <c r="U14" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T14" s="1" t="str">
+      <c r="V14" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U14" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V14" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W14" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y14" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1395,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="str">
-        <v>1|8888</v>
+        <v>2|28888</v>
       </c>
       <c r="F15" t="str">
         <v>4F1B0735442C84A20C4C229746C0FB74</v>
@@ -1413,7 +1527,7 @@
         <v>0.5</v>
       </c>
       <c r="K15" s="1">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1425,7 +1539,7 @@
         <v>30</v>
       </c>
       <c r="O15" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P15" s="1" t="str">
         <v>0|0|0</v>
@@ -1433,22 +1547,28 @@
       <c r="Q15" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R15" s="1" t="str">
+      <c r="R15" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S15" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T15" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S15" s="1" t="str">
+      <c r="U15" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T15" s="1" t="str">
+      <c r="V15" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U15" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V15" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W15" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y15" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1466,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="str">
-        <v>1|8888</v>
+        <v>2|28888</v>
       </c>
       <c r="F16" t="str">
         <v>0B70A2E944C51B1851B5A4AADEAF5D7A</v>
@@ -1484,7 +1604,7 @@
         <v>0.4</v>
       </c>
       <c r="K16" s="1">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
@@ -1493,10 +1613,10 @@
         <v>0.01</v>
       </c>
       <c r="N16" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O16" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P16" s="1" t="str">
         <v>0|0|0</v>
@@ -1504,22 +1624,28 @@
       <c r="Q16" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R16" s="1" t="str">
+      <c r="R16" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S16" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T16" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S16" s="1" t="str">
+      <c r="U16" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T16" s="1" t="str">
+      <c r="V16" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U16" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V16" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W16" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y16" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1537,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="str">
-        <v>1|8888</v>
+        <v>3|38888</v>
       </c>
       <c r="F17" t="str">
         <v>06AB82414F7B76402C8B96961A2C34A0</v>
@@ -1567,7 +1693,7 @@
         <v>30</v>
       </c>
       <c r="O17" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P17" s="1" t="str">
         <v>0|0|0</v>
@@ -1575,22 +1701,28 @@
       <c r="Q17" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R17" s="1" t="str">
+      <c r="R17" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S17" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T17" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S17" s="1" t="str">
+      <c r="U17" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T17" s="1" t="str">
+      <c r="V17" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U17" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V17" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W17" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y17" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1608,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="str">
-        <v>1|8888</v>
+        <v>3|38888</v>
       </c>
       <c r="F18" t="str">
         <v>E7C6A1FA4BB1FFDE6CAF78B69623C3A5</v>
@@ -1638,7 +1770,7 @@
         <v>30</v>
       </c>
       <c r="O18" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="P18" s="1" t="str">
         <v>0|0|0</v>
@@ -1646,22 +1778,28 @@
       <c r="Q18" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R18" s="1" t="str">
+      <c r="R18" s="1">
+        <v>80479</v>
+      </c>
+      <c r="S18" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T18" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="S18" s="1" t="str">
+      <c r="U18" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="T18" s="1" t="str">
+      <c r="V18" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="U18" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V18" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W18" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y18" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1679,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="str">
-        <v>1|8888</v>
+        <v>5|58888</v>
       </c>
       <c r="F19" t="str">
         <v>2580BDD74D69D7F57E93E29E74B387B6</v>
@@ -1709,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="O19" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="P19" s="1" t="str">
         <v>0|0|0</v>
@@ -1717,22 +1855,28 @@
       <c r="Q19" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R19" s="1" t="str">
+      <c r="R19" s="1">
+        <v>20228</v>
+      </c>
+      <c r="S19" s="1">
+        <v>75374</v>
+      </c>
+      <c r="T19" s="1" t="str">
         <v>121981|121981|121981</v>
       </c>
-      <c r="S19" s="1" t="str">
+      <c r="U19" s="1" t="str">
         <v>2.47|2.47|2.47</v>
       </c>
-      <c r="T19" s="1" t="str">
+      <c r="V19" s="1" t="str">
         <v>1.05|1.05|1.05</v>
       </c>
-      <c r="U19" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
-      <c r="V19" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="W19" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y19" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
